--- a/ipa_1_2/myUtils/empty_session_df.xlsx
+++ b/ipa_1_2/myUtils/empty_session_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB41708-BFA0-4A0C-B5E4-C08508AF307D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBCE62-647D-45EE-AD9D-EFA3AC0984DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>subject_num</t>
   </si>
@@ -102,33 +102,6 @@
     <t>self_amazing</t>
   </si>
   <si>
-    <t>self_shapes-1</t>
-  </si>
-  <si>
-    <t>self_shapes-2</t>
-  </si>
-  <si>
-    <t>self_signs-1</t>
-  </si>
-  <si>
-    <t>self_drink-1</t>
-  </si>
-  <si>
-    <t>self_drink-2</t>
-  </si>
-  <si>
-    <t>self_taste</t>
-  </si>
-  <si>
-    <t>self_symbols</t>
-  </si>
-  <si>
-    <t>self_number</t>
-  </si>
-  <si>
-    <t>self_pattern</t>
-  </si>
-  <si>
     <t>min_goodness</t>
   </si>
   <si>
@@ -156,33 +129,6 @@
     <t>min_amazing</t>
   </si>
   <si>
-    <t>min_shapes-1</t>
-  </si>
-  <si>
-    <t>min_shapes-2</t>
-  </si>
-  <si>
-    <t>min_signs-1</t>
-  </si>
-  <si>
-    <t>min_drink-1</t>
-  </si>
-  <si>
-    <t>min_drink-2</t>
-  </si>
-  <si>
-    <t>min_taste</t>
-  </si>
-  <si>
-    <t>min_symbols</t>
-  </si>
-  <si>
-    <t>min_number</t>
-  </si>
-  <si>
-    <t>min_pattern</t>
-  </si>
-  <si>
     <t>max_goodness</t>
   </si>
   <si>
@@ -210,33 +156,6 @@
     <t>max_amazing</t>
   </si>
   <si>
-    <t>max_shapes-1</t>
-  </si>
-  <si>
-    <t>max_shapes-2</t>
-  </si>
-  <si>
-    <t>max_signs-1</t>
-  </si>
-  <si>
-    <t>max_drink-1</t>
-  </si>
-  <si>
-    <t>max_drink-2</t>
-  </si>
-  <si>
-    <t>max_taste</t>
-  </si>
-  <si>
-    <t>max_symbols</t>
-  </si>
-  <si>
-    <t>max_number</t>
-  </si>
-  <si>
-    <t>max_pattern</t>
-  </si>
-  <si>
     <t>profile_goodness</t>
   </si>
   <si>
@@ -264,33 +183,6 @@
     <t>profile_amazing</t>
   </si>
   <si>
-    <t>profile_shapes-1</t>
-  </si>
-  <si>
-    <t>profile_shapes-2</t>
-  </si>
-  <si>
-    <t>profile_signs-1</t>
-  </si>
-  <si>
-    <t>profile_drink-1</t>
-  </si>
-  <si>
-    <t>profile_drink-2</t>
-  </si>
-  <si>
-    <t>profile_taste</t>
-  </si>
-  <si>
-    <t>profile_symbols</t>
-  </si>
-  <si>
-    <t>profile_number</t>
-  </si>
-  <si>
-    <t>profile_pattern</t>
-  </si>
-  <si>
     <t>ideal_goodness</t>
   </si>
   <si>
@@ -318,36 +210,6 @@
     <t>ideal_amazing</t>
   </si>
   <si>
-    <t>ideal_shapes-1</t>
-  </si>
-  <si>
-    <t>ideal_shapes-2</t>
-  </si>
-  <si>
-    <t>ideal_signs-1</t>
-  </si>
-  <si>
-    <t>ideal_drink-1</t>
-  </si>
-  <si>
-    <t>ideal_drink-2</t>
-  </si>
-  <si>
-    <t>ideal_taste</t>
-  </si>
-  <si>
-    <t>ideal_symbols</t>
-  </si>
-  <si>
-    <t>ideal_number</t>
-  </si>
-  <si>
-    <t>ideal_pattern</t>
-  </si>
-  <si>
-    <t>profile_description</t>
-  </si>
-  <si>
     <t>self_way_of_speech</t>
   </si>
   <si>
@@ -429,9 +291,6 @@
     <t>max_intelligence</t>
   </si>
   <si>
-    <t>way_of_speech</t>
-  </si>
-  <si>
     <t>ideal_socio_economic</t>
   </si>
   <si>
@@ -490,6 +349,156 @@
   </si>
   <si>
     <t>experiment_duration</t>
+  </si>
+  <si>
+    <t>self_c1</t>
+  </si>
+  <si>
+    <t>self_c2</t>
+  </si>
+  <si>
+    <t>self_c3</t>
+  </si>
+  <si>
+    <t>self_c4</t>
+  </si>
+  <si>
+    <t>self_c5</t>
+  </si>
+  <si>
+    <t>self_c6</t>
+  </si>
+  <si>
+    <t>self_c7</t>
+  </si>
+  <si>
+    <t>self_c8</t>
+  </si>
+  <si>
+    <t>self_c9</t>
+  </si>
+  <si>
+    <t>min_c1</t>
+  </si>
+  <si>
+    <t>min_c2</t>
+  </si>
+  <si>
+    <t>min_c3</t>
+  </si>
+  <si>
+    <t>min_c4</t>
+  </si>
+  <si>
+    <t>min_c5</t>
+  </si>
+  <si>
+    <t>min_c6</t>
+  </si>
+  <si>
+    <t>min_c7</t>
+  </si>
+  <si>
+    <t>min_c8</t>
+  </si>
+  <si>
+    <t>min_c9</t>
+  </si>
+  <si>
+    <t>max_c1</t>
+  </si>
+  <si>
+    <t>max_c2</t>
+  </si>
+  <si>
+    <t>max_c3</t>
+  </si>
+  <si>
+    <t>max_c4</t>
+  </si>
+  <si>
+    <t>max_c5</t>
+  </si>
+  <si>
+    <t>max_c6</t>
+  </si>
+  <si>
+    <t>max_c7</t>
+  </si>
+  <si>
+    <t>max_c8</t>
+  </si>
+  <si>
+    <t>max_c9</t>
+  </si>
+  <si>
+    <t>ideal_way_of_speech</t>
+  </si>
+  <si>
+    <t>ideal_c1</t>
+  </si>
+  <si>
+    <t>ideal_c2</t>
+  </si>
+  <si>
+    <t>ideal_c3</t>
+  </si>
+  <si>
+    <t>ideal_c4</t>
+  </si>
+  <si>
+    <t>ideal_c5</t>
+  </si>
+  <si>
+    <t>ideal_c6</t>
+  </si>
+  <si>
+    <t>ideal_c7</t>
+  </si>
+  <si>
+    <t>ideal_c8</t>
+  </si>
+  <si>
+    <t>ideal_c9</t>
+  </si>
+  <si>
+    <t>profile_c1</t>
+  </si>
+  <si>
+    <t>profile_c2</t>
+  </si>
+  <si>
+    <t>profile_c3</t>
+  </si>
+  <si>
+    <t>profile_c4</t>
+  </si>
+  <si>
+    <t>profile_c5</t>
+  </si>
+  <si>
+    <t>profile_c6</t>
+  </si>
+  <si>
+    <t>profile_c7</t>
+  </si>
+  <si>
+    <t>profile_c8</t>
+  </si>
+  <si>
+    <t>profile_c9</t>
+  </si>
+  <si>
+    <t>profile_info(sides_or_description)</t>
+  </si>
+  <si>
+    <t>trial_task</t>
+  </si>
+  <si>
+    <t>session_num</t>
+  </si>
+  <si>
+    <t>experiment</t>
   </si>
 </sst>
 </file>
@@ -807,481 +816,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EV1"/>
+  <dimension ref="A1:EY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DU1" workbookViewId="0">
-      <selection activeCell="DW2" sqref="DW2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>53</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>54</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>55</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>56</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>57</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>93</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>95</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>97</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>99</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>100</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>101</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>40</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>41</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>43</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>44</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>45</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>46</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>47</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>48</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>143</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>144</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EX1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" t="s">
+      <c r="EY1" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W1" t="s">
-        <v>109</v>
-      </c>
-      <c r="X1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>59</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>63</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>64</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>65</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>136</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>137</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>138</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>139</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>85</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>86</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>88</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>89</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>90</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>93</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>140</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>141</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>142</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>143</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>67</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>68</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>69</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>70</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>71</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>72</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>73</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>74</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>75</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>76</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>77</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>78</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>79</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>80</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>81</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>82</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/empty_session_df.xlsx
+++ b/ipa_1_2/myUtils/empty_session_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBCE62-647D-45EE-AD9D-EFA3AC0984DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6ABA5C-D31E-4564-BCFF-9E5426F4D1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>subject_num</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>experiment</t>
+  </si>
+  <si>
+    <t>trial_features_order</t>
   </si>
 </sst>
 </file>
@@ -816,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EY1"/>
+  <dimension ref="A1:EZ1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +838,7 @@
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,423 +885,426 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>151</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>19</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>105</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>106</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>108</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>109</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>110</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>111</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>112</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>113</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>67</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>68</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>70</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>71</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>72</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>73</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>74</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>75</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>22</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>23</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>24</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>25</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>26</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>27</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>28</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>29</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>30</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>114</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>115</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>116</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>117</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>118</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>119</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>120</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>121</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>122</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>76</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>77</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>79</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>81</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>82</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>83</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>84</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>31</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>32</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>33</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>34</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>35</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>36</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>37</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>38</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>39</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>123</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>124</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>125</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>127</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>128</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>129</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>130</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>131</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>132</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>85</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>86</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>87</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>88</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>89</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>90</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>91</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>92</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>49</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>50</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>51</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>52</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>53</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>54</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>55</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>56</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>57</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>133</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>134</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>135</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>136</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>137</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>138</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>139</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>140</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>141</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>93</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>94</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>95</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>96</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>97</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>98</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>99</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>100</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>101</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EI1" t="s">
         <v>40</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>41</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>42</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>43</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>44</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>45</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>46</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>47</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>48</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>142</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>143</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>144</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>145</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>146</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>147</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>148</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>149</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>150</v>
       </c>
     </row>

--- a/ipa_1_2/myUtils/empty_session_df.xlsx
+++ b/ipa_1_2/myUtils/empty_session_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6ABA5C-D31E-4564-BCFF-9E5426F4D1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B3B8FB-43ED-4664-8D4D-965BCBBBEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>subject_num</t>
   </si>
@@ -502,6 +502,12 @@
   </si>
   <si>
     <t>trial_features_order</t>
+  </si>
+  <si>
+    <t>response_time_profiles</t>
+  </si>
+  <si>
+    <t>response_time_features</t>
   </si>
 </sst>
 </file>
@@ -819,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EZ1"/>
+  <dimension ref="A1:FB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +844,7 @@
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,429 +888,435 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>152</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>151</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>59</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>20</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>21</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>105</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>106</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>107</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>108</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>109</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>110</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>112</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>113</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>67</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>68</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>69</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>70</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>71</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>72</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>73</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>74</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>75</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>22</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>23</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>24</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>25</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>26</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>27</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>28</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>29</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>30</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>114</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>115</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>116</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>117</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>120</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>121</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>122</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>77</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>78</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>79</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>80</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>81</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>82</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>84</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>31</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>32</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>33</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>34</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>35</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>36</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>37</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>38</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>39</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>123</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>124</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>125</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>126</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>127</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>128</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>129</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>130</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>131</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>132</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>85</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>86</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>87</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>88</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>89</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DG1" t="s">
         <v>90</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>91</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>92</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" t="s">
         <v>49</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" t="s">
         <v>50</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>51</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DM1" t="s">
         <v>52</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" t="s">
         <v>53</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DO1" t="s">
         <v>54</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" t="s">
         <v>55</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DQ1" t="s">
         <v>56</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DR1" t="s">
         <v>57</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DS1" t="s">
         <v>133</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DT1" t="s">
         <v>134</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DU1" t="s">
         <v>135</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DV1" t="s">
         <v>136</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DW1" t="s">
         <v>137</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DX1" t="s">
         <v>138</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DY1" t="s">
         <v>139</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DZ1" t="s">
         <v>140</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EA1" t="s">
         <v>141</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EB1" t="s">
         <v>93</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EC1" t="s">
         <v>94</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="ED1" t="s">
         <v>95</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EE1" t="s">
         <v>96</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EF1" t="s">
         <v>97</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EG1" t="s">
         <v>98</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EH1" t="s">
         <v>99</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EI1" t="s">
         <v>100</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EJ1" t="s">
         <v>101</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EK1" t="s">
         <v>40</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EL1" t="s">
         <v>41</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EM1" t="s">
         <v>42</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EN1" t="s">
         <v>43</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EO1" t="s">
         <v>44</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EP1" t="s">
         <v>45</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EQ1" t="s">
         <v>46</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="ER1" t="s">
         <v>47</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ES1" t="s">
         <v>48</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ET1" t="s">
         <v>142</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="EU1" t="s">
         <v>143</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EV1" t="s">
         <v>144</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EW1" t="s">
         <v>145</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EX1" t="s">
         <v>146</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EY1" t="s">
         <v>147</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EZ1" t="s">
         <v>148</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FA1" t="s">
         <v>149</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FB1" t="s">
         <v>150</v>
       </c>
     </row>

--- a/ipa_1_2/myUtils/empty_session_df.xlsx
+++ b/ipa_1_2/myUtils/empty_session_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B3B8FB-43ED-4664-8D4D-965BCBBBEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948CA24F-11E6-41D0-8BB0-AFFB8A49AAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>subject_num</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>profile_c9</t>
-  </si>
-  <si>
-    <t>profile_info(sides_or_description)</t>
   </si>
   <si>
     <t>trial_task</t>
@@ -825,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FB1"/>
+  <dimension ref="A1:FA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,15 +841,15 @@
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>102</v>
@@ -888,19 +885,19 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" t="s">
         <v>156</v>
-      </c>
-      <c r="P1" t="s">
-        <v>157</v>
       </c>
       <c r="Q1" t="s">
         <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T1" t="s">
         <v>10</v>
@@ -909,414 +906,411 @@
         <v>11</v>
       </c>
       <c r="V1" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="W1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="AG1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="AP1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AQ1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AR1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AS1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AT1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AU1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AV1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AW1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX1" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="AY1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AZ1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BA1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BB1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BC1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BD1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BF1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BG1" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="BH1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BI1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BJ1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BK1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BL1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BM1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BN1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BO1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BP1" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="BQ1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BR1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BS1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BT1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BU1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BV1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BW1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BX1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BY1" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="BZ1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="CI1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CJ1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CK1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CL1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CM1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CN1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CO1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CP1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CQ1" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="CR1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CS1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="CT1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CU1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CV1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CW1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CX1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CY1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CZ1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DA1" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="DB1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="DC1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="DD1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="DE1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DF1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="DG1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DH1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="DI1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="DJ1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="DK1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="DL1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DM1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="DN1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="DO1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="DP1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="DQ1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="DR1" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="DS1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="DT1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DU1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="DV1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="DW1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="DX1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="DY1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="DZ1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EA1" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="EB1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="EC1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="ED1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="EE1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="EF1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="EG1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EH1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="EI1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="EJ1" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="EK1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="EL1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="EM1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="EN1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="EO1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="EP1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="EQ1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="ER1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="ES1" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="ET1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="EU1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="EV1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="EW1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EX1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EY1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EZ1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="FA1" t="s">
-        <v>149</v>
-      </c>
-      <c r="FB1" t="s">
         <v>150</v>
       </c>
     </row>

--- a/ipa_1_2/myUtils/empty_session_df.xlsx
+++ b/ipa_1_2/myUtils/empty_session_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948CA24F-11E6-41D0-8BB0-AFFB8A49AAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5256A069-0735-488A-8A15-D0AA30E1152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>subject_num</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>response_time_features</t>
+  </si>
+  <si>
+    <t>identification_profiles_sides</t>
   </si>
 </sst>
 </file>
@@ -822,26 +825,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FA1"/>
+  <dimension ref="A1:FB1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,411 +909,414 @@
         <v>11</v>
       </c>
       <c r="V1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>21</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>106</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>107</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>109</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>110</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>111</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>112</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>113</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>67</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>68</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>69</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>70</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>71</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>72</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>73</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>74</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>75</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>23</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>24</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>26</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>27</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>28</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>29</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>30</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>114</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>115</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>116</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>117</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>118</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>119</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>120</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>121</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>122</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>31</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>32</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>33</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>35</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>36</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>37</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>38</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>39</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>123</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>124</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>125</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>126</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>127</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>128</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>129</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>130</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>131</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>132</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>85</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>86</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>87</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>88</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>89</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>90</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>91</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>92</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>49</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>50</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>51</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>52</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>53</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>54</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>55</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>56</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>57</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>133</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>134</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>135</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>136</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>137</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>138</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>139</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>140</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>141</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>93</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>94</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>95</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>96</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>97</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>98</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>99</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EI1" t="s">
         <v>100</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>101</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>40</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>41</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>42</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>43</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>44</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>45</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>46</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>47</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>48</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>142</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>143</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>144</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>145</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>146</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>147</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>148</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>149</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>150</v>
       </c>
     </row>
